--- a/ReadXML/bin/Debug/Archivos/Reporte de XML.xlsx
+++ b/ReadXML/bin/Debug/Archivos/Reporte de XML.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reporte" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>VERSION</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>FECHA TIMBRADO</t>
+  </si>
+  <si>
+    <t>TIPO NOMINA</t>
+  </si>
+  <si>
+    <t>FECHA PAGO</t>
+  </si>
+  <si>
+    <t>FECHA INICIAL PAGO</t>
+  </si>
+  <si>
+    <t>FECHA FINAL PAGO</t>
+  </si>
+  <si>
+    <t>NUMDIAS PAGADOS</t>
+  </si>
+  <si>
+    <t>TIPO PERCEPCION</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>CONCEPTO</t>
+  </si>
+  <si>
+    <t>IMPORTE GRAVADO</t>
+  </si>
+  <si>
+    <t>IMPORTE EXCENTO</t>
+  </si>
+  <si>
+    <t>TOTAL SUELDOS</t>
   </si>
 </sst>
 </file>
@@ -424,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -543,17 +576,39 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
